--- a/public/ml.xlsx
+++ b/public/ml.xlsx
@@ -379,11 +379,11 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="86.63"/>
@@ -393,7 +393,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.74"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
